--- a/biology/Zoologie/Diamant_modeste/Diamant_modeste.xlsx
+++ b/biology/Zoologie/Diamant_modeste/Diamant_modeste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neochmia modesta
 Le Diamant modeste (Neochmia modesta) est une espèce d'oiseaux appartenant à la famille des Estrildidae.
@@ -512,9 +524,11 @@
           <t>Variétés domestiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seul un individu de variété brune ou isabelle, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres formes de cet oiseau relèvent donc de la législation concernant les animaux sauvages[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seul un individu de variété brune ou isabelle, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres formes de cet oiseau relèvent donc de la législation concernant les animaux sauvages.
 </t>
         </is>
       </c>
